--- a/connexion-osiris/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/connexion-osiris/ig/StructureDefinition-oncofair-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T15:06:03+00:00</t>
+    <t>2024-09-30T15:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/onco-patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -308,10 +308,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Local patient identifier</t>
+  </si>
+  <si>
+    <t>Anonymized local identifier of the patient in the hospital.</t>
   </si>
   <si>
     <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
@@ -450,33 +450,53 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:origin-center</t>
+  </si>
+  <si>
+    <t>origin-center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/origin-center}
+</t>
+  </si>
+  <si>
+    <t>Identifier of the patient's origin center</t>
+  </si>
+  <si>
+    <t>The identifier according to the Fichier National des Etablissements Sanitaires et Sociaux (FINESS) of the health center that took care of the patient.</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,6 +504,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -546,17 +569,13 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -828,10 +847,10 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
-  </si>
-  <si>
-    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+    <t>Sex of the patient</t>
+  </si>
+  <si>
+    <t>Biological sex of the patient.</t>
   </si>
   <si>
     <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
@@ -865,10 +884,10 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
-  </si>
-  <si>
-    <t>The date of birth for the individual.</t>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>The patient's date of birth as recorded on the birth certificate. Date (indicating the 15th day of the month of birth for anonymization).</t>
   </si>
   <si>
     <t>Partial dates are allowed if the specific date of birth is unknown. There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
@@ -911,10 +930,30 @@
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
   </si>
   <si>
     <t>PID-30  (bool) and PID-29 (datetime)</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]:deceasedDateTime</t>
+  </si>
+  <si>
+    <t>deceasedDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Death date. Obligatory if vitalstatus is C1546956 (died).</t>
+  </si>
+  <si>
+    <t>Date of patient's death. Date (indicating the 15th day of the month of death for anonymization). Obligatory if vitalstatus is C1546956 (died).</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -1156,6 +1195,9 @@
     <t>Patient.contact.gender</t>
   </si>
   <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
@@ -1307,10 +1349,14 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t>Organization that is the custodian of the patient record</t>
-  </si>
-  <si>
-    <t>Organization that is the custodian of the patient record.</t>
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/onco-organization)
+</t>
+  </si>
+  <si>
+    <t>Identifier of the center providing the data</t>
+  </si>
+  <si>
+    <t>The FINESS identifier of the center providing the clinical data for the OSIRIS project.</t>
   </si>
   <si>
     <t>There is only one managing organization for a specific patient record. Other organizations will have their own Patient record, and may use the Link property to join the records together (or a Person resource which can include confidence ratings for the association).</t>
@@ -1702,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ54"/>
+  <dimension ref="A1:AQ56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1713,7 +1759,7 @@
   <cols>
     <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1721,7 +1767,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2020,13 +2066,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>20</v>
@@ -2752,7 +2798,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2771,17 +2817,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2818,16 +2862,14 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>144</v>
@@ -2851,7 +2893,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>20</v>
@@ -2871,43 +2913,41 @@
         <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -2955,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2976,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>20</v>
@@ -3000,26 +3040,26 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>153</v>
@@ -3027,9 +3067,11 @@
       <c r="M11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3078,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3090,25 +3132,25 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>20</v>
@@ -3116,10 +3158,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3127,31 +3169,33 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3199,37 +3243,37 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AP12" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>20</v>
@@ -3237,21 +3281,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3263,17 +3307,15 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3310,31 +3352,31 @@
         <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AF13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3343,7 +3385,7 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -3360,46 +3402,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3423,43 +3463,43 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3468,7 +3508,7 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3477,7 +3517,7 @@
         <v>20</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>20</v>
@@ -3485,10 +3525,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3505,25 +3545,25 @@
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3548,13 +3588,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3572,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3593,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3602,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>20</v>
@@ -3610,10 +3650,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3636,19 +3676,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3661,7 +3701,7 @@
         <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>20</v>
@@ -3673,13 +3713,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3697,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3718,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -3727,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>20</v>
@@ -3735,10 +3775,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3761,18 +3801,20 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3784,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>20</v>
@@ -3820,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3829,7 +3871,7 @@
         <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>104</v>
@@ -3841,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -3850,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>20</v>
@@ -3858,10 +3900,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3884,15 +3926,17 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3905,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3941,7 +3985,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3950,7 +3994,7 @@
         <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>104</v>
@@ -3962,16 +4006,16 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>20</v>
@@ -3979,10 +4023,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4005,17 +4049,15 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4064,7 +4106,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4085,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4094,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>20</v>
@@ -4102,10 +4144,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4122,76 +4164,72 @@
         <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4209,19 +4247,19 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>20</v>
@@ -4229,10 +4267,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4243,36 +4281,38 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="P21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4316,13 +4356,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -4334,19 +4374,19 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>20</v>
@@ -4354,10 +4394,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4380,19 +4420,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4441,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4462,16 +4502,16 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>20</v>
@@ -4479,10 +4519,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4493,7 +4533,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4505,19 +4545,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4542,13 +4582,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4566,13 +4606,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -4587,16 +4627,16 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>20</v>
@@ -4604,10 +4644,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4615,13 +4655,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4630,19 +4670,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4667,13 +4707,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4691,7 +4731,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4712,27 +4752,27 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4740,34 +4780,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4816,7 +4856,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4837,27 +4877,27 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4868,31 +4908,31 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4929,25 +4969,23 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -4962,16 +5000,16 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>20</v>
@@ -4979,12 +5017,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4996,26 +5036,28 @@
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5040,13 +5082,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5064,7 +5106,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5085,16 +5127,16 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>20</v>
@@ -5102,10 +5144,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5116,7 +5158,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5125,22 +5167,22 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5189,13 +5231,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5210,16 +5252,16 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>20</v>
@@ -5227,10 +5269,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5241,7 +5283,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5253,19 +5295,17 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5290,13 +5330,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5314,13 +5354,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5335,16 +5375,16 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>20</v>
@@ -5352,10 +5392,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5366,7 +5406,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5378,19 +5418,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5439,19 +5479,19 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5460,16 +5500,16 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>20</v>
@@ -5477,10 +5517,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5491,7 +5531,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5503,16 +5543,20 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5560,19 +5604,19 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5581,16 +5625,16 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>20</v>
@@ -5598,14 +5642,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5624,18 +5668,20 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5683,7 +5729,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5695,7 +5741,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>145</v>
+        <v>342</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5704,13 +5750,13 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>167</v>
+        <v>343</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5721,46 +5767,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5808,19 +5850,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5829,7 +5871,7 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -5846,14 +5888,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5872,18 +5914,18 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5907,13 +5949,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5931,7 +5973,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5943,7 +5985,7 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -5952,16 +5994,16 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>20</v>
@@ -5969,33 +6011,33 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>348</v>
@@ -6003,9 +6045,11 @@
       <c r="M35" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6054,19 +6098,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -6075,16 +6119,16 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>20</v>
@@ -6092,10 +6136,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6118,19 +6162,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6155,13 +6197,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6179,7 +6221,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6188,7 +6230,7 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>104</v>
@@ -6200,16 +6242,16 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>20</v>
@@ -6217,10 +6259,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6243,17 +6285,17 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6302,7 +6344,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6311,7 +6353,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6323,16 +6365,16 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>20</v>
@@ -6340,10 +6382,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6354,7 +6396,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6366,17 +6408,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6401,13 +6445,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6425,16 +6469,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6446,16 +6490,16 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>20</v>
@@ -6463,10 +6507,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6489,17 +6533,17 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6548,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6557,7 +6601,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6569,16 +6613,16 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>20</v>
@@ -6586,10 +6630,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6612,16 +6656,18 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6645,13 +6691,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6669,7 +6715,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6690,16 +6736,16 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>20</v>
@@ -6707,10 +6753,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6721,7 +6767,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6733,19 +6779,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6794,16 +6838,16 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
@@ -6815,16 +6859,16 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>20</v>
@@ -6832,10 +6876,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6858,13 +6902,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>163</v>
+        <v>387</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6915,7 +6959,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>165</v>
+        <v>386</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6924,10 +6968,10 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6936,13 +6980,13 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>167</v>
+        <v>389</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
@@ -6953,14 +6997,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6979,18 +7023,20 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7038,7 +7084,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>173</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7050,7 +7096,7 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7059,13 +7105,13 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>167</v>
+        <v>395</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -7076,46 +7122,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7163,19 +7205,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7184,7 +7226,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7201,21 +7243,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7227,20 +7269,18 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>176</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>177</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7264,13 +7304,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7288,19 +7328,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7309,16 +7349,16 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>174</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>20</v>
@@ -7326,45 +7366,45 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>399</v>
+        <v>155</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7413,19 +7453,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7434,16 +7474,16 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>137</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>20</v>
@@ -7451,21 +7491,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7477,18 +7517,20 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7512,13 +7554,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7536,13 +7578,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -7557,16 +7599,16 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>20</v>
@@ -7574,10 +7616,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7597,22 +7639,22 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7661,7 +7703,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7682,16 +7724,16 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>20</v>
@@ -7699,14 +7741,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7719,26 +7761,24 @@
         <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O49" t="s" s="2">
         <v>422</v>
       </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7786,7 +7826,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7813,10 +7853,10 @@
         <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>20</v>
@@ -7824,10 +7864,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7841,25 +7881,29 @@
         <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>163</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7907,7 +7951,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7916,10 +7960,10 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7928,13 +7972,13 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -7945,14 +7989,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7965,24 +8009,26 @@
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>141</v>
+        <v>433</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>169</v>
+        <v>434</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8030,7 +8076,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>173</v>
+        <v>432</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8042,7 +8088,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8051,13 +8097,13 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>167</v>
+        <v>437</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>20</v>
@@ -8068,46 +8114,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8155,19 +8197,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8176,7 +8218,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8193,21 +8235,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8216,19 +8258,19 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>430</v>
+        <v>155</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8278,19 +8320,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>427</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8299,16 +8341,16 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>20</v>
@@ -8316,42 +8358,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8375,68 +8421,312 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AG54" t="s" s="2">
+      <c r="Y56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AH54" t="s" s="2">
+      <c r="AH56" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ54">
+  <autoFilter ref="A1:AQ56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8446,7 +8736,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/connexion-osiris/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/connexion-osiris/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T15:08:10+00:00</t>
+    <t>2024-09-30T15:18:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
